--- a/GNFA/Entrega/Matriculados/Mat_Programa.xlsx
+++ b/GNFA/Entrega/Matriculados/Mat_Programa.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F453"/>
+  <dimension ref="A1:G457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -388,6 +388,11 @@
           <t>2023-1</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2023-2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -416,6 +421,9 @@
       <c r="F2">
         <v>13</v>
       </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -444,6 +452,9 @@
       <c r="F3">
         <v>2</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -472,6 +483,9 @@
       <c r="F4">
         <v>25</v>
       </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -500,6 +514,9 @@
       <c r="F5">
         <v>21</v>
       </c>
+      <c r="G5">
+        <v>24</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -528,6 +545,9 @@
       <c r="F6">
         <v>28</v>
       </c>
+      <c r="G6">
+        <v>33</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -556,6 +576,9 @@
       <c r="F7">
         <v>13</v>
       </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -584,6 +607,9 @@
       <c r="F8">
         <v>15</v>
       </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -612,6 +638,9 @@
       <c r="F9">
         <v>31</v>
       </c>
+      <c r="G9">
+        <v>28</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -640,6 +669,9 @@
       <c r="F10">
         <v>7</v>
       </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -668,6 +700,9 @@
       <c r="F11">
         <v>21</v>
       </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -696,6 +731,9 @@
       <c r="F12">
         <v>18</v>
       </c>
+      <c r="G12">
+        <v>19</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -724,6 +762,9 @@
       <c r="F13">
         <v>12</v>
       </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -752,6 +793,9 @@
       <c r="F14">
         <v>9</v>
       </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -780,6 +824,9 @@
       <c r="F15">
         <v>5</v>
       </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -808,6 +855,9 @@
       <c r="F16">
         <v>22</v>
       </c>
+      <c r="G16">
+        <v>21</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -836,6 +886,9 @@
       <c r="F17">
         <v>10</v>
       </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -864,6 +917,9 @@
       <c r="F18">
         <v>13</v>
       </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -892,6 +948,9 @@
       <c r="F19">
         <v>16</v>
       </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -920,6 +979,9 @@
       <c r="F20">
         <v>18</v>
       </c>
+      <c r="G20">
+        <v>17</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -948,6 +1010,9 @@
       <c r="F21">
         <v>13</v>
       </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -976,6 +1041,9 @@
       <c r="F22">
         <v>16</v>
       </c>
+      <c r="G22">
+        <v>16</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1004,6 +1072,9 @@
       <c r="F23">
         <v>17</v>
       </c>
+      <c r="G23">
+        <v>16</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1032,6 +1103,9 @@
       <c r="F24">
         <v>48</v>
       </c>
+      <c r="G24">
+        <v>36</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1060,6 +1134,9 @@
       <c r="F25">
         <v>14</v>
       </c>
+      <c r="G25">
+        <v>13</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1088,6 +1165,9 @@
       <c r="F26">
         <v>15</v>
       </c>
+      <c r="G26">
+        <v>14</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1116,6 +1196,9 @@
       <c r="F27">
         <v>26</v>
       </c>
+      <c r="G27">
+        <v>19</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1144,6 +1227,9 @@
       <c r="F28">
         <v>20</v>
       </c>
+      <c r="G28">
+        <v>16</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1172,6 +1258,9 @@
       <c r="F29">
         <v>27</v>
       </c>
+      <c r="G29">
+        <v>26</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1200,6 +1289,9 @@
       <c r="F30">
         <v>25</v>
       </c>
+      <c r="G30">
+        <v>24</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1228,6 +1320,9 @@
       <c r="F31">
         <v>20</v>
       </c>
+      <c r="G31">
+        <v>19</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1256,6 +1351,9 @@
       <c r="F32">
         <v>15</v>
       </c>
+      <c r="G32">
+        <v>17</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1284,6 +1382,9 @@
       <c r="F33">
         <v>16</v>
       </c>
+      <c r="G33">
+        <v>16</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1312,6 +1413,9 @@
       <c r="F34">
         <v>20</v>
       </c>
+      <c r="G34">
+        <v>17</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1340,6 +1444,9 @@
       <c r="F35">
         <v>18</v>
       </c>
+      <c r="G35">
+        <v>20</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1368,6 +1475,9 @@
       <c r="F36">
         <v>9</v>
       </c>
+      <c r="G36">
+        <v>11</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1396,6 +1506,9 @@
       <c r="F37">
         <v>12</v>
       </c>
+      <c r="G37">
+        <v>16</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1424,6 +1537,9 @@
       <c r="F38">
         <v>40</v>
       </c>
+      <c r="G38">
+        <v>39</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1452,6 +1568,9 @@
       <c r="F39">
         <v>6</v>
       </c>
+      <c r="G39">
+        <v>8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1480,6 +1599,9 @@
       <c r="F40">
         <v>21</v>
       </c>
+      <c r="G40">
+        <v>18</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1508,6 +1630,9 @@
       <c r="F41">
         <v>5</v>
       </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1536,6 +1661,9 @@
       <c r="F42">
         <v>25</v>
       </c>
+      <c r="G42">
+        <v>25</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1564,6 +1692,9 @@
       <c r="F43">
         <v>17</v>
       </c>
+      <c r="G43">
+        <v>17</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1592,6 +1723,9 @@
       <c r="F44">
         <v>13</v>
       </c>
+      <c r="G44">
+        <v>13</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1620,6 +1754,9 @@
       <c r="F45">
         <v>9</v>
       </c>
+      <c r="G45">
+        <v>9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1648,6 +1785,9 @@
       <c r="F46">
         <v>4</v>
       </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1676,6 +1816,9 @@
       <c r="F47">
         <v>23</v>
       </c>
+      <c r="G47">
+        <v>23</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1704,6 +1847,9 @@
       <c r="F48">
         <v>23</v>
       </c>
+      <c r="G48">
+        <v>23</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1732,6 +1878,9 @@
       <c r="F49">
         <v>65</v>
       </c>
+      <c r="G49">
+        <v>64</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1760,6 +1909,9 @@
       <c r="F50">
         <v>10</v>
       </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1788,6 +1940,9 @@
       <c r="F51">
         <v>6</v>
       </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1816,6 +1971,9 @@
       <c r="F52">
         <v>23</v>
       </c>
+      <c r="G52">
+        <v>24</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1844,6 +2002,9 @@
       <c r="F53">
         <v>6</v>
       </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1872,6 +2033,9 @@
       <c r="F54">
         <v>35</v>
       </c>
+      <c r="G54">
+        <v>35</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1900,6 +2064,9 @@
       <c r="F55">
         <v>19</v>
       </c>
+      <c r="G55">
+        <v>19</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1928,6 +2095,9 @@
       <c r="F56">
         <v>20</v>
       </c>
+      <c r="G56">
+        <v>20</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1956,6 +2126,9 @@
       <c r="F57">
         <v>8</v>
       </c>
+      <c r="G57">
+        <v>7</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1984,6 +2157,9 @@
       <c r="F58">
         <v>12</v>
       </c>
+      <c r="G58">
+        <v>12</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2012,6 +2188,9 @@
       <c r="F59">
         <v>8</v>
       </c>
+      <c r="G59">
+        <v>8</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2040,6 +2219,9 @@
       <c r="F60">
         <v>25</v>
       </c>
+      <c r="G60">
+        <v>25</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2068,6 +2250,9 @@
       <c r="F61">
         <v>4</v>
       </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2096,6 +2281,9 @@
       <c r="F62">
         <v>12</v>
       </c>
+      <c r="G62">
+        <v>12</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2124,6 +2312,9 @@
       <c r="F63">
         <v>14</v>
       </c>
+      <c r="G63">
+        <v>14</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2152,6 +2343,9 @@
       <c r="F64">
         <v>3</v>
       </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2180,6 +2374,9 @@
       <c r="F65">
         <v>4</v>
       </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2208,6 +2405,9 @@
       <c r="F66">
         <v>11</v>
       </c>
+      <c r="G66">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2236,6 +2436,9 @@
       <c r="F67">
         <v>9</v>
       </c>
+      <c r="G67">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2264,6 +2467,9 @@
       <c r="F68">
         <v>8</v>
       </c>
+      <c r="G68">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2292,6 +2498,9 @@
       <c r="F69">
         <v>10</v>
       </c>
+      <c r="G69">
+        <v>11</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2320,6 +2529,9 @@
       <c r="F70">
         <v>3</v>
       </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2348,6 +2560,9 @@
       <c r="F71">
         <v>15</v>
       </c>
+      <c r="G71">
+        <v>19</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2376,6 +2591,9 @@
       <c r="F72">
         <v>4</v>
       </c>
+      <c r="G72">
+        <v>4</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2404,6 +2622,9 @@
       <c r="F73">
         <v>2</v>
       </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2432,6 +2653,9 @@
       <c r="F74">
         <v>16</v>
       </c>
+      <c r="G74">
+        <v>16</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2460,6 +2684,9 @@
       <c r="F75">
         <v>6</v>
       </c>
+      <c r="G75">
+        <v>6</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2488,6 +2715,9 @@
       <c r="F76">
         <v>13</v>
       </c>
+      <c r="G76">
+        <v>11</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2516,6 +2746,9 @@
       <c r="F77">
         <v>18</v>
       </c>
+      <c r="G77">
+        <v>15</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2544,6 +2777,9 @@
       <c r="F78">
         <v>13</v>
       </c>
+      <c r="G78">
+        <v>9</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2572,6 +2808,9 @@
       <c r="F79">
         <v>14</v>
       </c>
+      <c r="G79">
+        <v>11</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2600,6 +2839,9 @@
       <c r="F80">
         <v>13</v>
       </c>
+      <c r="G80">
+        <v>11</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2628,6 +2870,9 @@
       <c r="F81">
         <v>12</v>
       </c>
+      <c r="G81">
+        <v>12</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2656,6 +2901,9 @@
       <c r="F82">
         <v>14</v>
       </c>
+      <c r="G82">
+        <v>13</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2684,6 +2932,9 @@
       <c r="F83">
         <v>21</v>
       </c>
+      <c r="G83">
+        <v>12</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2712,6 +2963,9 @@
       <c r="F84">
         <v>9</v>
       </c>
+      <c r="G84">
+        <v>4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2740,6 +2994,9 @@
       <c r="F85">
         <v>10</v>
       </c>
+      <c r="G85">
+        <v>16</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2768,6 +3025,9 @@
       <c r="F86">
         <v>31</v>
       </c>
+      <c r="G86">
+        <v>25</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2796,6 +3056,9 @@
       <c r="F87">
         <v>21</v>
       </c>
+      <c r="G87">
+        <v>21</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2824,6 +3087,9 @@
       <c r="F88">
         <v>19</v>
       </c>
+      <c r="G88">
+        <v>23</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2852,6 +3118,9 @@
       <c r="F89">
         <v>12</v>
       </c>
+      <c r="G89">
+        <v>25</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2880,6 +3149,9 @@
       <c r="F90">
         <v>25</v>
       </c>
+      <c r="G90">
+        <v>28</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2908,6 +3180,9 @@
       <c r="F91">
         <v>7</v>
       </c>
+      <c r="G91">
+        <v>7</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2936,6 +3211,9 @@
       <c r="F92">
         <v>31</v>
       </c>
+      <c r="G92">
+        <v>32</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2964,6 +3242,9 @@
       <c r="F93">
         <v>133</v>
       </c>
+      <c r="G93">
+        <v>130</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2992,6 +3273,9 @@
       <c r="F94">
         <v>22</v>
       </c>
+      <c r="G94">
+        <v>23</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3020,6 +3304,9 @@
       <c r="F95">
         <v>25</v>
       </c>
+      <c r="G95">
+        <v>17</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3048,6 +3335,9 @@
       <c r="F96">
         <v>99</v>
       </c>
+      <c r="G96">
+        <v>63</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3076,6 +3366,9 @@
       <c r="F97">
         <v>64</v>
       </c>
+      <c r="G97">
+        <v>77</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3104,6 +3397,9 @@
       <c r="F98">
         <v>30</v>
       </c>
+      <c r="G98">
+        <v>30</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3132,6 +3428,9 @@
       <c r="F99">
         <v>62</v>
       </c>
+      <c r="G99">
+        <v>26</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3160,6 +3459,9 @@
       <c r="F100">
         <v>30</v>
       </c>
+      <c r="G100">
+        <v>31</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3188,6 +3490,9 @@
       <c r="F101">
         <v>38</v>
       </c>
+      <c r="G101">
+        <v>41</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3216,6 +3521,9 @@
       <c r="F102">
         <v>30</v>
       </c>
+      <c r="G102">
+        <v>27</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3244,6 +3552,9 @@
       <c r="F103">
         <v>13</v>
       </c>
+      <c r="G103">
+        <v>13</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3272,6 +3583,9 @@
       <c r="F104">
         <v>12</v>
       </c>
+      <c r="G104">
+        <v>12</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3300,6 +3614,9 @@
       <c r="F105">
         <v>8</v>
       </c>
+      <c r="G105">
+        <v>7</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3328,6 +3645,9 @@
       <c r="F106">
         <v>27</v>
       </c>
+      <c r="G106">
+        <v>28</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3356,6 +3676,9 @@
       <c r="F107">
         <v>12</v>
       </c>
+      <c r="G107">
+        <v>19</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3384,6 +3707,9 @@
       <c r="F108">
         <v>17</v>
       </c>
+      <c r="G108">
+        <v>16</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3412,6 +3738,9 @@
       <c r="F109">
         <v>8</v>
       </c>
+      <c r="G109">
+        <v>8</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3440,6 +3769,9 @@
       <c r="F110">
         <v>38</v>
       </c>
+      <c r="G110">
+        <v>35</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3468,6 +3800,9 @@
       <c r="F111">
         <v>11</v>
       </c>
+      <c r="G111">
+        <v>11</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3496,6 +3831,9 @@
       <c r="F112">
         <v>15</v>
       </c>
+      <c r="G112">
+        <v>28</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3524,6 +3862,9 @@
       <c r="F113">
         <v>36</v>
       </c>
+      <c r="G113">
+        <v>30</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3552,6 +3893,9 @@
       <c r="F114">
         <v>10</v>
       </c>
+      <c r="G114">
+        <v>17</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3580,6 +3924,9 @@
       <c r="F115">
         <v>51</v>
       </c>
+      <c r="G115">
+        <v>39</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3608,6 +3955,9 @@
       <c r="F116">
         <v>18</v>
       </c>
+      <c r="G116">
+        <v>18</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3636,6 +3986,9 @@
       <c r="F117">
         <v>17</v>
       </c>
+      <c r="G117">
+        <v>18</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3664,6 +4017,9 @@
       <c r="F118">
         <v>7</v>
       </c>
+      <c r="G118">
+        <v>25</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3692,6 +4048,9 @@
       <c r="F119">
         <v>17</v>
       </c>
+      <c r="G119">
+        <v>21</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3720,6 +4079,9 @@
       <c r="F120">
         <v>25</v>
       </c>
+      <c r="G120">
+        <v>23</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3748,6 +4110,9 @@
       <c r="F121">
         <v>23</v>
       </c>
+      <c r="G121">
+        <v>19</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3776,6 +4141,9 @@
       <c r="F122">
         <v>15</v>
       </c>
+      <c r="G122">
+        <v>21</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3804,6 +4172,9 @@
       <c r="F123">
         <v>47</v>
       </c>
+      <c r="G123">
+        <v>54</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3832,6 +4203,9 @@
       <c r="F124">
         <v>21</v>
       </c>
+      <c r="G124">
+        <v>25</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3860,6 +4234,9 @@
       <c r="F125">
         <v>24</v>
       </c>
+      <c r="G125">
+        <v>23</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3888,6 +4265,9 @@
       <c r="F126">
         <v>14</v>
       </c>
+      <c r="G126">
+        <v>30</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3916,6 +4296,9 @@
       <c r="F127">
         <v>9</v>
       </c>
+      <c r="G127">
+        <v>5</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3944,6 +4327,9 @@
       <c r="F128">
         <v>16</v>
       </c>
+      <c r="G128">
+        <v>16</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3972,6 +4358,9 @@
       <c r="F129">
         <v>17</v>
       </c>
+      <c r="G129">
+        <v>12</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4000,6 +4389,9 @@
       <c r="F130">
         <v>17</v>
       </c>
+      <c r="G130">
+        <v>17</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4028,6 +4420,9 @@
       <c r="F131">
         <v>71</v>
       </c>
+      <c r="G131">
+        <v>78</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4056,6 +4451,9 @@
       <c r="F132">
         <v>81</v>
       </c>
+      <c r="G132">
+        <v>78</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4084,6 +4482,9 @@
       <c r="F133">
         <v>42</v>
       </c>
+      <c r="G133">
+        <v>36</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4112,6 +4513,9 @@
       <c r="F134">
         <v>22</v>
       </c>
+      <c r="G134">
+        <v>23</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4140,6 +4544,9 @@
       <c r="F135">
         <v>60</v>
       </c>
+      <c r="G135">
+        <v>55</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4168,6 +4575,9 @@
       <c r="F136">
         <v>25</v>
       </c>
+      <c r="G136">
+        <v>25</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4196,6 +4606,9 @@
       <c r="F137">
         <v>68</v>
       </c>
+      <c r="G137">
+        <v>63</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4224,6 +4637,9 @@
       <c r="F138">
         <v>23</v>
       </c>
+      <c r="G138">
+        <v>29</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4252,6 +4668,9 @@
       <c r="F139">
         <v>18</v>
       </c>
+      <c r="G139">
+        <v>23</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4280,6 +4699,9 @@
       <c r="F140">
         <v>37</v>
       </c>
+      <c r="G140">
+        <v>26</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4308,6 +4730,9 @@
       <c r="F141">
         <v>15</v>
       </c>
+      <c r="G141">
+        <v>12</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4336,6 +4761,9 @@
       <c r="F142">
         <v>21</v>
       </c>
+      <c r="G142">
+        <v>25</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4364,6 +4792,9 @@
       <c r="F143">
         <v>21</v>
       </c>
+      <c r="G143">
+        <v>22</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4392,6 +4823,9 @@
       <c r="F144">
         <v>8</v>
       </c>
+      <c r="G144">
+        <v>8</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4420,6 +4854,9 @@
       <c r="F145">
         <v>23</v>
       </c>
+      <c r="G145">
+        <v>19</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4448,6 +4885,9 @@
       <c r="F146">
         <v>53</v>
       </c>
+      <c r="G146">
+        <v>40</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4476,6 +4916,9 @@
       <c r="F147">
         <v>50</v>
       </c>
+      <c r="G147">
+        <v>56</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4504,6 +4947,9 @@
       <c r="F148">
         <v>5</v>
       </c>
+      <c r="G148">
+        <v>21</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4532,6 +4978,9 @@
       <c r="F149">
         <v>47</v>
       </c>
+      <c r="G149">
+        <v>33</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4560,6 +5009,9 @@
       <c r="F150">
         <v>27</v>
       </c>
+      <c r="G150">
+        <v>21</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4588,6 +5040,9 @@
       <c r="F151">
         <v>39</v>
       </c>
+      <c r="G151">
+        <v>35</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4616,6 +5071,9 @@
       <c r="F152">
         <v>36</v>
       </c>
+      <c r="G152">
+        <v>35</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4644,6 +5102,9 @@
       <c r="F153">
         <v>77</v>
       </c>
+      <c r="G153">
+        <v>62</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4672,6 +5133,9 @@
       <c r="F154">
         <v>96</v>
       </c>
+      <c r="G154">
+        <v>107</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4700,6 +5164,9 @@
       <c r="F155">
         <v>49</v>
       </c>
+      <c r="G155">
+        <v>39</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4728,6 +5195,9 @@
       <c r="F156">
         <v>53</v>
       </c>
+      <c r="G156">
+        <v>45</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4756,6 +5226,9 @@
       <c r="F157">
         <v>56</v>
       </c>
+      <c r="G157">
+        <v>60</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4784,6 +5257,9 @@
       <c r="F158">
         <v>35</v>
       </c>
+      <c r="G158">
+        <v>34</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4812,6 +5288,9 @@
       <c r="F159">
         <v>14</v>
       </c>
+      <c r="G159">
+        <v>20</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4840,6 +5319,9 @@
       <c r="F160">
         <v>25</v>
       </c>
+      <c r="G160">
+        <v>33</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4868,6 +5350,9 @@
       <c r="F161">
         <v>27</v>
       </c>
+      <c r="G161">
+        <v>33</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4896,6 +5381,9 @@
       <c r="F162">
         <v>13</v>
       </c>
+      <c r="G162">
+        <v>18</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4924,6 +5412,9 @@
       <c r="F163">
         <v>25</v>
       </c>
+      <c r="G163">
+        <v>20</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4952,6 +5443,9 @@
       <c r="F164">
         <v>64</v>
       </c>
+      <c r="G164">
+        <v>48</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4980,6 +5474,9 @@
       <c r="F165">
         <v>46</v>
       </c>
+      <c r="G165">
+        <v>57</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5008,6 +5505,9 @@
       <c r="F166">
         <v>23</v>
       </c>
+      <c r="G166">
+        <v>37</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5036,6 +5536,9 @@
       <c r="F167">
         <v>50</v>
       </c>
+      <c r="G167">
+        <v>50</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5064,6 +5567,9 @@
       <c r="F168">
         <v>16</v>
       </c>
+      <c r="G168">
+        <v>3</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5092,6 +5598,9 @@
       <c r="F169">
         <v>21</v>
       </c>
+      <c r="G169">
+        <v>21</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5120,6 +5629,9 @@
       <c r="F170">
         <v>17</v>
       </c>
+      <c r="G170">
+        <v>12</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5148,6 +5660,9 @@
       <c r="F171">
         <v>19</v>
       </c>
+      <c r="G171">
+        <v>15</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5176,6 +5691,9 @@
       <c r="F172">
         <v>14</v>
       </c>
+      <c r="G172">
+        <v>16</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5204,6 +5722,9 @@
       <c r="F173">
         <v>14</v>
       </c>
+      <c r="G173">
+        <v>18</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5232,6 +5753,9 @@
       <c r="F174">
         <v>86</v>
       </c>
+      <c r="G174">
+        <v>122</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5260,6 +5784,9 @@
       <c r="F175">
         <v>31</v>
       </c>
+      <c r="G175">
+        <v>23</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5288,6 +5815,9 @@
       <c r="F176">
         <v>4</v>
       </c>
+      <c r="G176">
+        <v>2</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5316,6 +5846,9 @@
       <c r="F177">
         <v>13</v>
       </c>
+      <c r="G177">
+        <v>7</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5344,6 +5877,9 @@
       <c r="F178">
         <v>47</v>
       </c>
+      <c r="G178">
+        <v>50</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5372,6 +5908,9 @@
       <c r="F179">
         <v>19</v>
       </c>
+      <c r="G179">
+        <v>13</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5400,6 +5939,9 @@
       <c r="F180">
         <v>54</v>
       </c>
+      <c r="G180">
+        <v>63</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5428,6 +5970,9 @@
       <c r="F181">
         <v>52</v>
       </c>
+      <c r="G181">
+        <v>53</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5456,6 +6001,9 @@
       <c r="F182">
         <v>19</v>
       </c>
+      <c r="G182">
+        <v>29</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5484,6 +6032,9 @@
       <c r="F183">
         <v>37</v>
       </c>
+      <c r="G183">
+        <v>34</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5512,6 +6063,9 @@
       <c r="F184">
         <v>54</v>
       </c>
+      <c r="G184">
+        <v>69</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5540,6 +6094,9 @@
       <c r="F185">
         <v>36</v>
       </c>
+      <c r="G185">
+        <v>48</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5568,6 +6125,9 @@
       <c r="F186">
         <v>39</v>
       </c>
+      <c r="G186">
+        <v>29</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5596,6 +6156,9 @@
       <c r="F187">
         <v>31</v>
       </c>
+      <c r="G187">
+        <v>24</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5624,6 +6187,9 @@
       <c r="F188">
         <v>9</v>
       </c>
+      <c r="G188">
+        <v>5</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5652,6 +6218,9 @@
       <c r="F189">
         <v>42</v>
       </c>
+      <c r="G189">
+        <v>32</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5680,6 +6249,9 @@
       <c r="F190">
         <v>28</v>
       </c>
+      <c r="G190">
+        <v>26</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5708,6 +6280,9 @@
       <c r="F191">
         <v>20</v>
       </c>
+      <c r="G191">
+        <v>21</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5736,6 +6311,9 @@
       <c r="F192">
         <v>17</v>
       </c>
+      <c r="G192">
+        <v>16</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5764,6 +6342,9 @@
       <c r="F193">
         <v>29</v>
       </c>
+      <c r="G193">
+        <v>30</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5792,6 +6373,9 @@
       <c r="F194">
         <v>53</v>
       </c>
+      <c r="G194">
+        <v>50</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5820,6 +6404,9 @@
       <c r="F195">
         <v>16</v>
       </c>
+      <c r="G195">
+        <v>18</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5848,6 +6435,9 @@
       <c r="F196">
         <v>16</v>
       </c>
+      <c r="G196">
+        <v>15</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5876,6 +6466,9 @@
       <c r="F197">
         <v>66</v>
       </c>
+      <c r="G197">
+        <v>35</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5904,6 +6497,9 @@
       <c r="F198">
         <v>11</v>
       </c>
+      <c r="G198">
+        <v>6</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5932,6 +6528,9 @@
       <c r="F199">
         <v>18</v>
       </c>
+      <c r="G199">
+        <v>16</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5960,6 +6559,9 @@
       <c r="F200">
         <v>45</v>
       </c>
+      <c r="G200">
+        <v>31</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5988,6 +6590,9 @@
       <c r="F201">
         <v>6</v>
       </c>
+      <c r="G201">
+        <v>5</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6016,6 +6621,9 @@
       <c r="F202">
         <v>11</v>
       </c>
+      <c r="G202">
+        <v>8</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6044,6 +6652,9 @@
       <c r="F203">
         <v>25</v>
       </c>
+      <c r="G203">
+        <v>11</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6072,6 +6683,9 @@
       <c r="F204">
         <v>7</v>
       </c>
+      <c r="G204">
+        <v>13</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6100,6 +6714,9 @@
       <c r="F205">
         <v>20</v>
       </c>
+      <c r="G205">
+        <v>20</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -6128,6 +6745,9 @@
       <c r="F206">
         <v>27</v>
       </c>
+      <c r="G206">
+        <v>41</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6156,6 +6776,9 @@
       <c r="F207">
         <v>13</v>
       </c>
+      <c r="G207">
+        <v>14</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6184,6 +6807,9 @@
       <c r="F208">
         <v>21</v>
       </c>
+      <c r="G208">
+        <v>13</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6212,6 +6838,9 @@
       <c r="F209">
         <v>54</v>
       </c>
+      <c r="G209">
+        <v>35</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6240,6 +6869,9 @@
       <c r="F210">
         <v>6</v>
       </c>
+      <c r="G210">
+        <v>14</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6268,6 +6900,9 @@
       <c r="F211">
         <v>28</v>
       </c>
+      <c r="G211">
+        <v>33</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6296,6 +6931,9 @@
       <c r="F212">
         <v>5</v>
       </c>
+      <c r="G212">
+        <v>4</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6324,6 +6962,9 @@
       <c r="F213">
         <v>367</v>
       </c>
+      <c r="G213">
+        <v>365</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6352,6 +6993,9 @@
       <c r="F214">
         <v>504</v>
       </c>
+      <c r="G214">
+        <v>502</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6380,6 +7024,9 @@
       <c r="F215">
         <v>301</v>
       </c>
+      <c r="G215">
+        <v>297</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6408,6 +7055,9 @@
       <c r="F216">
         <v>820</v>
       </c>
+      <c r="G216">
+        <v>842</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6436,6 +7086,9 @@
       <c r="F217">
         <v>341</v>
       </c>
+      <c r="G217">
+        <v>353</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6464,6 +7117,9 @@
       <c r="F218">
         <v>50</v>
       </c>
+      <c r="G218">
+        <v>52</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6492,6 +7148,9 @@
       <c r="F219">
         <v>274</v>
       </c>
+      <c r="G219">
+        <v>263</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6520,6 +7179,9 @@
       <c r="F220">
         <v>578</v>
       </c>
+      <c r="G220">
+        <v>552</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6548,6 +7210,9 @@
       <c r="F221">
         <v>461</v>
       </c>
+      <c r="G221">
+        <v>432</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6576,6 +7241,9 @@
       <c r="F222">
         <v>659</v>
       </c>
+      <c r="G222">
+        <v>642</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6604,6 +7272,9 @@
       <c r="F223">
         <v>408</v>
       </c>
+      <c r="G223">
+        <v>386</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6632,6 +7303,9 @@
       <c r="F224">
         <v>266</v>
       </c>
+      <c r="G224">
+        <v>255</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6660,6 +7334,9 @@
       <c r="F225">
         <v>584</v>
       </c>
+      <c r="G225">
+        <v>571</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6688,6 +7365,9 @@
       <c r="F226">
         <v>645</v>
       </c>
+      <c r="G226">
+        <v>623</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6716,6 +7396,9 @@
       <c r="F227">
         <v>203</v>
       </c>
+      <c r="G227">
+        <v>221</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6744,6 +7427,9 @@
       <c r="F228">
         <v>861</v>
       </c>
+      <c r="G228">
+        <v>823</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6772,6 +7458,9 @@
       <c r="F229">
         <v>1073</v>
       </c>
+      <c r="G229">
+        <v>1026</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6800,6 +7489,9 @@
       <c r="F230">
         <v>945</v>
       </c>
+      <c r="G230">
+        <v>939</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6828,6 +7520,9 @@
       <c r="F231">
         <v>1012</v>
       </c>
+      <c r="G231">
+        <v>986</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6856,6 +7551,9 @@
       <c r="F232">
         <v>392</v>
       </c>
+      <c r="G232">
+        <v>385</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6884,6 +7582,9 @@
       <c r="F233">
         <v>649</v>
       </c>
+      <c r="G233">
+        <v>617</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6912,6 +7613,9 @@
       <c r="F234">
         <v>507</v>
       </c>
+      <c r="G234">
+        <v>464</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6940,6 +7644,9 @@
       <c r="F235">
         <v>430</v>
       </c>
+      <c r="G235">
+        <v>423</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6968,6 +7675,9 @@
       <c r="F236">
         <v>337</v>
       </c>
+      <c r="G236">
+        <v>302</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6996,6 +7706,9 @@
       <c r="F237">
         <v>268</v>
       </c>
+      <c r="G237">
+        <v>245</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -7024,6 +7737,9 @@
       <c r="F238">
         <v>755</v>
       </c>
+      <c r="G238">
+        <v>747</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -7052,6 +7768,9 @@
       <c r="F239">
         <v>274</v>
       </c>
+      <c r="G239">
+        <v>275</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -7080,6 +7799,9 @@
       <c r="F240">
         <v>312</v>
       </c>
+      <c r="G240">
+        <v>309</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -7108,6 +7830,9 @@
       <c r="F241">
         <v>268</v>
       </c>
+      <c r="G241">
+        <v>258</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -7136,6 +7861,9 @@
       <c r="F242">
         <v>209</v>
       </c>
+      <c r="G242">
+        <v>183</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -7164,6 +7892,9 @@
       <c r="F243">
         <v>923</v>
       </c>
+      <c r="G243">
+        <v>928</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7192,6 +7923,9 @@
       <c r="F244">
         <v>696</v>
       </c>
+      <c r="G244">
+        <v>659</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7220,6 +7954,9 @@
       <c r="F245">
         <v>854</v>
       </c>
+      <c r="G245">
+        <v>843</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7248,6 +7985,9 @@
       <c r="F246">
         <v>621</v>
       </c>
+      <c r="G246">
+        <v>599</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7276,6 +8016,9 @@
       <c r="F247">
         <v>1285</v>
       </c>
+      <c r="G247">
+        <v>1235</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -7304,6 +8047,9 @@
       <c r="F248">
         <v>629</v>
       </c>
+      <c r="G248">
+        <v>619</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7332,6 +8078,9 @@
       <c r="F249">
         <v>767</v>
       </c>
+      <c r="G249">
+        <v>758</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7360,6 +8109,9 @@
       <c r="F250">
         <v>1225</v>
       </c>
+      <c r="G250">
+        <v>1191</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7388,6 +8140,9 @@
       <c r="F251">
         <v>527</v>
       </c>
+      <c r="G251">
+        <v>524</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7416,6 +8171,9 @@
       <c r="F252">
         <v>520</v>
       </c>
+      <c r="G252">
+        <v>523</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7444,6 +8202,9 @@
       <c r="F253">
         <v>624</v>
       </c>
+      <c r="G253">
+        <v>614</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7472,6 +8233,9 @@
       <c r="F254">
         <v>1098</v>
       </c>
+      <c r="G254">
+        <v>1108</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7500,6 +8264,9 @@
       <c r="F255">
         <v>303</v>
       </c>
+      <c r="G255">
+        <v>299</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7528,6 +8295,9 @@
       <c r="F256">
         <v>1503</v>
       </c>
+      <c r="G256">
+        <v>1490</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7556,6 +8326,9 @@
       <c r="F257">
         <v>409</v>
       </c>
+      <c r="G257">
+        <v>411</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7584,6 +8357,9 @@
       <c r="F258">
         <v>222</v>
       </c>
+      <c r="G258">
+        <v>197</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7612,6 +8388,9 @@
       <c r="F259">
         <v>243</v>
       </c>
+      <c r="G259">
+        <v>203</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7640,6 +8419,9 @@
       <c r="F260">
         <v>622</v>
       </c>
+      <c r="G260">
+        <v>626</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7668,6 +8450,9 @@
       <c r="F261">
         <v>498</v>
       </c>
+      <c r="G261">
+        <v>483</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7696,6 +8481,9 @@
       <c r="F262">
         <v>665</v>
       </c>
+      <c r="G262">
+        <v>680</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7724,6 +8512,9 @@
       <c r="F263">
         <v>10</v>
       </c>
+      <c r="G263">
+        <v>8</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7752,6 +8543,9 @@
       <c r="F264">
         <v>3</v>
       </c>
+      <c r="G264">
+        <v>7</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -7780,6 +8574,9 @@
       <c r="F265">
         <v>10</v>
       </c>
+      <c r="G265">
+        <v>13</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7808,6 +8605,9 @@
       <c r="F266">
         <v>210</v>
       </c>
+      <c r="G266">
+        <v>217</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7836,6 +8636,9 @@
       <c r="F267">
         <v>168</v>
       </c>
+      <c r="G267">
+        <v>186</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7864,6 +8667,9 @@
       <c r="F268">
         <v>205</v>
       </c>
+      <c r="G268">
+        <v>209</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7892,6 +8698,9 @@
       <c r="F269">
         <v>193</v>
       </c>
+      <c r="G269">
+        <v>195</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7920,6 +8729,9 @@
       <c r="F270">
         <v>213</v>
       </c>
+      <c r="G270">
+        <v>216</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7948,6 +8760,9 @@
       <c r="F271">
         <v>226</v>
       </c>
+      <c r="G271">
+        <v>233</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7976,6 +8791,9 @@
       <c r="F272">
         <v>13</v>
       </c>
+      <c r="G272">
+        <v>17</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -8004,6 +8822,9 @@
       <c r="F273">
         <v>5</v>
       </c>
+      <c r="G273">
+        <v>5</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -8032,6 +8853,9 @@
       <c r="F274">
         <v>11</v>
       </c>
+      <c r="G274">
+        <v>10</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -8060,6 +8884,9 @@
       <c r="F275">
         <v>13</v>
       </c>
+      <c r="G275">
+        <v>10</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -8088,6 +8915,9 @@
       <c r="F276">
         <v>22</v>
       </c>
+      <c r="G276">
+        <v>22</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -8116,6 +8946,9 @@
       <c r="F277">
         <v>10</v>
       </c>
+      <c r="G277">
+        <v>8</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -8144,6 +8977,9 @@
       <c r="F278">
         <v>9</v>
       </c>
+      <c r="G278">
+        <v>7</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -8172,6 +9008,9 @@
       <c r="F279">
         <v>9</v>
       </c>
+      <c r="G279">
+        <v>10</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -8200,6 +9039,9 @@
       <c r="F280">
         <v>20</v>
       </c>
+      <c r="G280">
+        <v>33</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -8228,6 +9070,9 @@
       <c r="F281">
         <v>7</v>
       </c>
+      <c r="G281">
+        <v>8</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -8256,6 +9101,9 @@
       <c r="F282">
         <v>41</v>
       </c>
+      <c r="G282">
+        <v>37</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -8284,6 +9132,9 @@
       <c r="F283">
         <v>26</v>
       </c>
+      <c r="G283">
+        <v>26</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -8312,6 +9163,9 @@
       <c r="F284">
         <v>9</v>
       </c>
+      <c r="G284">
+        <v>11</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -8340,6 +9194,9 @@
       <c r="F285">
         <v>8</v>
       </c>
+      <c r="G285">
+        <v>3</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -8368,6 +9225,9 @@
       <c r="F286">
         <v>19</v>
       </c>
+      <c r="G286">
+        <v>31</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -8396,6 +9256,9 @@
       <c r="F287">
         <v>6</v>
       </c>
+      <c r="G287">
+        <v>4</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -8424,6 +9287,9 @@
       <c r="F288">
         <v>19</v>
       </c>
+      <c r="G288">
+        <v>12</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -8452,6 +9318,9 @@
       <c r="F289">
         <v>20</v>
       </c>
+      <c r="G289">
+        <v>9</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -8480,6 +9349,9 @@
       <c r="F290">
         <v>32</v>
       </c>
+      <c r="G290">
+        <v>24</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -8508,6 +9380,9 @@
       <c r="F291">
         <v>28</v>
       </c>
+      <c r="G291">
+        <v>29</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -8536,6 +9411,9 @@
       <c r="F292">
         <v>4</v>
       </c>
+      <c r="G292">
+        <v>16</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -8564,6 +9442,9 @@
       <c r="F293">
         <v>26</v>
       </c>
+      <c r="G293">
+        <v>35</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -8592,6 +9473,9 @@
       <c r="F294">
         <v>2</v>
       </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -8620,6 +9504,9 @@
       <c r="F295">
         <v>9</v>
       </c>
+      <c r="G295">
+        <v>8</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -8648,6 +9535,9 @@
       <c r="F296">
         <v>21</v>
       </c>
+      <c r="G296">
+        <v>20</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -8676,6 +9566,9 @@
       <c r="F297">
         <v>11</v>
       </c>
+      <c r="G297">
+        <v>10</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -8704,6 +9597,9 @@
       <c r="F298">
         <v>56</v>
       </c>
+      <c r="G298">
+        <v>42</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -8732,6 +9628,9 @@
       <c r="F299">
         <v>5</v>
       </c>
+      <c r="G299">
+        <v>5</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -8760,6 +9659,9 @@
       <c r="F300">
         <v>19</v>
       </c>
+      <c r="G300">
+        <v>17</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -8788,6 +9690,9 @@
       <c r="F301">
         <v>6</v>
       </c>
+      <c r="G301">
+        <v>8</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -8816,6 +9721,9 @@
       <c r="F302">
         <v>22</v>
       </c>
+      <c r="G302">
+        <v>20</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -8844,6 +9752,9 @@
       <c r="F303">
         <v>5</v>
       </c>
+      <c r="G303">
+        <v>6</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -8872,6 +9783,9 @@
       <c r="F304">
         <v>17</v>
       </c>
+      <c r="G304">
+        <v>17</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -8900,6 +9814,9 @@
       <c r="F305">
         <v>13</v>
       </c>
+      <c r="G305">
+        <v>10</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -8928,6 +9845,9 @@
       <c r="F306">
         <v>19</v>
       </c>
+      <c r="G306">
+        <v>19</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -8956,6 +9876,9 @@
       <c r="F307">
         <v>23</v>
       </c>
+      <c r="G307">
+        <v>16</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -8984,6 +9907,9 @@
       <c r="F308">
         <v>21</v>
       </c>
+      <c r="G308">
+        <v>26</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -9012,6 +9938,9 @@
       <c r="F309">
         <v>10</v>
       </c>
+      <c r="G309">
+        <v>5</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -9040,6 +9969,9 @@
       <c r="F310">
         <v>490</v>
       </c>
+      <c r="G310">
+        <v>493</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -9068,6 +10000,9 @@
       <c r="F311">
         <v>416</v>
       </c>
+      <c r="G311">
+        <v>398</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -9096,6 +10031,9 @@
       <c r="F312">
         <v>410</v>
       </c>
+      <c r="G312">
+        <v>420</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -9124,6 +10062,9 @@
       <c r="F313">
         <v>137</v>
       </c>
+      <c r="G313">
+        <v>109</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -9152,6 +10093,9 @@
       <c r="F314">
         <v>313</v>
       </c>
+      <c r="G314">
+        <v>292</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -9180,6 +10124,9 @@
       <c r="F315">
         <v>134</v>
       </c>
+      <c r="G315">
+        <v>127</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -9208,6 +10155,9 @@
       <c r="F316">
         <v>82</v>
       </c>
+      <c r="G316">
+        <v>113</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -9236,6 +10186,9 @@
       <c r="F317">
         <v>543</v>
       </c>
+      <c r="G317">
+        <v>508</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -9264,6 +10217,9 @@
       <c r="F318">
         <v>495</v>
       </c>
+      <c r="G318">
+        <v>491</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -9292,6 +10248,9 @@
       <c r="F319">
         <v>424</v>
       </c>
+      <c r="G319">
+        <v>395</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -9320,6 +10279,9 @@
       <c r="F320">
         <v>522</v>
       </c>
+      <c r="G320">
+        <v>508</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -9348,6 +10310,9 @@
       <c r="F321">
         <v>522</v>
       </c>
+      <c r="G321">
+        <v>500</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -9376,6 +10341,9 @@
       <c r="F322">
         <v>585</v>
       </c>
+      <c r="G322">
+        <v>586</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -9404,6 +10372,9 @@
       <c r="F323">
         <v>12</v>
       </c>
+      <c r="G323">
+        <v>12</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -9432,6 +10403,9 @@
       <c r="F324">
         <v>12</v>
       </c>
+      <c r="G324">
+        <v>10</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -9460,6 +10434,9 @@
       <c r="F325">
         <v>24</v>
       </c>
+      <c r="G325">
+        <v>25</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -9488,6 +10465,9 @@
       <c r="F326">
         <v>1</v>
       </c>
+      <c r="G326">
+        <v>3</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -9516,6 +10496,9 @@
       <c r="F327">
         <v>10</v>
       </c>
+      <c r="G327">
+        <v>11</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -9544,6 +10527,9 @@
       <c r="F328">
         <v>10</v>
       </c>
+      <c r="G328">
+        <v>12</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -9572,6 +10558,9 @@
       <c r="F329">
         <v>4</v>
       </c>
+      <c r="G329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -9600,6 +10589,9 @@
       <c r="F330">
         <v>7</v>
       </c>
+      <c r="G330">
+        <v>7</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -9628,6 +10620,9 @@
       <c r="F331">
         <v>8</v>
       </c>
+      <c r="G331">
+        <v>5</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -9656,6 +10651,9 @@
       <c r="F332">
         <v>20</v>
       </c>
+      <c r="G332">
+        <v>24</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -9684,6 +10682,9 @@
       <c r="F333">
         <v>2</v>
       </c>
+      <c r="G333">
+        <v>2</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -9712,6 +10713,9 @@
       <c r="F334">
         <v>35</v>
       </c>
+      <c r="G334">
+        <v>31</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -9740,6 +10744,9 @@
       <c r="F335">
         <v>8</v>
       </c>
+      <c r="G335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -9768,6 +10775,9 @@
       <c r="F336">
         <v>18</v>
       </c>
+      <c r="G336">
+        <v>21</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -9796,6 +10806,9 @@
       <c r="F337">
         <v>15</v>
       </c>
+      <c r="G337">
+        <v>15</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -9824,6 +10837,9 @@
       <c r="F338">
         <v>2</v>
       </c>
+      <c r="G338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -9852,6 +10868,9 @@
       <c r="F339">
         <v>14</v>
       </c>
+      <c r="G339">
+        <v>13</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -9880,6 +10899,9 @@
       <c r="F340">
         <v>9</v>
       </c>
+      <c r="G340">
+        <v>9</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -9908,6 +10930,9 @@
       <c r="F341">
         <v>4</v>
       </c>
+      <c r="G341">
+        <v>4</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -9936,6 +10961,9 @@
       <c r="F342">
         <v>13</v>
       </c>
+      <c r="G342">
+        <v>14</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -9964,6 +10992,9 @@
       <c r="F343">
         <v>6</v>
       </c>
+      <c r="G343">
+        <v>6</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -9992,6 +11023,9 @@
       <c r="F344">
         <v>46</v>
       </c>
+      <c r="G344">
+        <v>48</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -10020,6 +11054,9 @@
       <c r="F345">
         <v>12</v>
       </c>
+      <c r="G345">
+        <v>12</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -10048,6 +11085,9 @@
       <c r="F346">
         <v>5</v>
       </c>
+      <c r="G346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -10076,6 +11116,9 @@
       <c r="F347">
         <v>2</v>
       </c>
+      <c r="G347">
+        <v>2</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -10104,6 +11147,9 @@
       <c r="F348">
         <v>4</v>
       </c>
+      <c r="G348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -10132,6 +11178,9 @@
       <c r="F349">
         <v>5</v>
       </c>
+      <c r="G349">
+        <v>1</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -10160,6 +11209,9 @@
       <c r="F350">
         <v>21</v>
       </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -10188,6 +11240,9 @@
       <c r="F351">
         <v>4</v>
       </c>
+      <c r="G351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -10216,6 +11271,9 @@
       <c r="F352">
         <v>12</v>
       </c>
+      <c r="G352">
+        <v>12</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -10244,6 +11302,9 @@
       <c r="F353">
         <v>10</v>
       </c>
+      <c r="G353">
+        <v>8</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -10272,6 +11333,9 @@
       <c r="F354">
         <v>28</v>
       </c>
+      <c r="G354">
+        <v>34</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -10300,6 +11364,9 @@
       <c r="F355">
         <v>5</v>
       </c>
+      <c r="G355">
+        <v>14</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -10328,6 +11395,9 @@
       <c r="F356">
         <v>10</v>
       </c>
+      <c r="G356">
+        <v>11</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -10356,6 +11426,9 @@
       <c r="F357">
         <v>2</v>
       </c>
+      <c r="G357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -10384,6 +11457,9 @@
       <c r="F358">
         <v>9</v>
       </c>
+      <c r="G358">
+        <v>15</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -10412,6 +11488,9 @@
       <c r="F359">
         <v>11</v>
       </c>
+      <c r="G359">
+        <v>17</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -10440,6 +11519,9 @@
       <c r="F360">
         <v>1</v>
       </c>
+      <c r="G360">
+        <v>4</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -10468,6 +11550,9 @@
       <c r="F361">
         <v>2</v>
       </c>
+      <c r="G361">
+        <v>1</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -10496,6 +11581,9 @@
       <c r="F362">
         <v>3</v>
       </c>
+      <c r="G362">
+        <v>5</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -10524,6 +11612,9 @@
       <c r="F363">
         <v>55</v>
       </c>
+      <c r="G363">
+        <v>51</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -10552,6 +11643,9 @@
       <c r="F364">
         <v>10</v>
       </c>
+      <c r="G364">
+        <v>17</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -10580,6 +11674,9 @@
       <c r="F365">
         <v>2</v>
       </c>
+      <c r="G365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -10608,6 +11705,9 @@
       <c r="F366">
         <v>13</v>
       </c>
+      <c r="G366">
+        <v>28</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -10636,6 +11736,9 @@
       <c r="F367">
         <v>4</v>
       </c>
+      <c r="G367">
+        <v>5</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -10664,6 +11767,9 @@
       <c r="F368">
         <v>31</v>
       </c>
+      <c r="G368">
+        <v>25</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -10692,6 +11798,9 @@
       <c r="F369">
         <v>7</v>
       </c>
+      <c r="G369">
+        <v>3</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -10720,6 +11829,9 @@
       <c r="F370">
         <v>12</v>
       </c>
+      <c r="G370">
+        <v>20</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -10748,6 +11860,9 @@
       <c r="F371">
         <v>6</v>
       </c>
+      <c r="G371">
+        <v>5</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -10776,6 +11891,9 @@
       <c r="F372">
         <v>21</v>
       </c>
+      <c r="G372">
+        <v>20</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -10804,6 +11922,9 @@
       <c r="F373">
         <v>29</v>
       </c>
+      <c r="G373">
+        <v>21</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -10832,6 +11953,9 @@
       <c r="F374">
         <v>10</v>
       </c>
+      <c r="G374">
+        <v>11</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -10860,6 +11984,9 @@
       <c r="F375">
         <v>5</v>
       </c>
+      <c r="G375">
+        <v>2</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -10888,6 +12015,9 @@
       <c r="F376">
         <v>9</v>
       </c>
+      <c r="G376">
+        <v>7</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -10916,6 +12046,9 @@
       <c r="F377">
         <v>45</v>
       </c>
+      <c r="G377">
+        <v>32</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -10944,6 +12077,9 @@
       <c r="F378">
         <v>10</v>
       </c>
+      <c r="G378">
+        <v>11</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -10972,6 +12108,9 @@
       <c r="F379">
         <v>29</v>
       </c>
+      <c r="G379">
+        <v>37</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -11000,6 +12139,9 @@
       <c r="F380">
         <v>9</v>
       </c>
+      <c r="G380">
+        <v>6</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -11028,6 +12170,9 @@
       <c r="F381">
         <v>14</v>
       </c>
+      <c r="G381">
+        <v>14</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -11056,6 +12201,9 @@
       <c r="F382">
         <v>8</v>
       </c>
+      <c r="G382">
+        <v>7</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -11084,6 +12232,9 @@
       <c r="F383">
         <v>28</v>
       </c>
+      <c r="G383">
+        <v>27</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -11112,6 +12263,9 @@
       <c r="F384">
         <v>20</v>
       </c>
+      <c r="G384">
+        <v>13</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -11140,6 +12294,9 @@
       <c r="F385">
         <v>17</v>
       </c>
+      <c r="G385">
+        <v>17</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -11168,6 +12325,9 @@
       <c r="F386">
         <v>6</v>
       </c>
+      <c r="G386">
+        <v>5</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -11196,6 +12356,9 @@
       <c r="F387">
         <v>16</v>
       </c>
+      <c r="G387">
+        <v>13</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -11224,6 +12387,9 @@
       <c r="F388">
         <v>5</v>
       </c>
+      <c r="G388">
+        <v>3</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -11252,6 +12418,9 @@
       <c r="F389">
         <v>10</v>
       </c>
+      <c r="G389">
+        <v>8</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -11280,6 +12449,9 @@
       <c r="F390">
         <v>6</v>
       </c>
+      <c r="G390">
+        <v>10</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -11308,6 +12480,9 @@
       <c r="F391">
         <v>4</v>
       </c>
+      <c r="G391">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -11336,6 +12511,9 @@
       <c r="F392">
         <v>7</v>
       </c>
+      <c r="G392">
+        <v>16</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -11364,6 +12542,9 @@
       <c r="F393">
         <v>18</v>
       </c>
+      <c r="G393">
+        <v>19</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -11392,6 +12573,9 @@
       <c r="F394">
         <v>13</v>
       </c>
+      <c r="G394">
+        <v>8</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -11420,6 +12604,9 @@
       <c r="F395">
         <v>22</v>
       </c>
+      <c r="G395">
+        <v>31</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -11448,6 +12635,9 @@
       <c r="F396">
         <v>13</v>
       </c>
+      <c r="G396">
+        <v>13</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -11476,6 +12666,9 @@
       <c r="F397">
         <v>17</v>
       </c>
+      <c r="G397">
+        <v>25</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -11504,6 +12697,9 @@
       <c r="F398">
         <v>6</v>
       </c>
+      <c r="G398">
+        <v>12</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -11532,6 +12728,9 @@
       <c r="F399">
         <v>17</v>
       </c>
+      <c r="G399">
+        <v>13</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -11560,6 +12759,9 @@
       <c r="F400">
         <v>9</v>
       </c>
+      <c r="G400">
+        <v>14</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -11588,6 +12790,9 @@
       <c r="F401">
         <v>17</v>
       </c>
+      <c r="G401">
+        <v>13</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -11616,6 +12821,9 @@
       <c r="F402">
         <v>8</v>
       </c>
+      <c r="G402">
+        <v>5</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -11644,6 +12852,9 @@
       <c r="F403">
         <v>28</v>
       </c>
+      <c r="G403">
+        <v>24</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -11672,6 +12883,9 @@
       <c r="F404">
         <v>8</v>
       </c>
+      <c r="G404">
+        <v>3</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -11700,6 +12914,9 @@
       <c r="F405">
         <v>16</v>
       </c>
+      <c r="G405">
+        <v>15</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -11728,6 +12945,9 @@
       <c r="F406">
         <v>8</v>
       </c>
+      <c r="G406">
+        <v>9</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -11756,6 +12976,9 @@
       <c r="F407">
         <v>11</v>
       </c>
+      <c r="G407">
+        <v>14</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -11784,6 +13007,9 @@
       <c r="F408">
         <v>63</v>
       </c>
+      <c r="G408">
+        <v>69</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -11812,6 +13038,9 @@
       <c r="F409">
         <v>608</v>
       </c>
+      <c r="G409">
+        <v>604</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -11840,6 +13069,9 @@
       <c r="F410">
         <v>366</v>
       </c>
+      <c r="G410">
+        <v>357</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -11868,6 +13100,9 @@
       <c r="F411">
         <v>172</v>
       </c>
+      <c r="G411">
+        <v>175</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -11896,6 +13131,9 @@
       <c r="F412">
         <v>185</v>
       </c>
+      <c r="G412">
+        <v>171</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -11924,6 +13162,9 @@
       <c r="F413">
         <v>403</v>
       </c>
+      <c r="G413">
+        <v>354</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -11952,6 +13193,9 @@
       <c r="F414">
         <v>576</v>
       </c>
+      <c r="G414">
+        <v>533</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -11980,6 +13224,9 @@
       <c r="F415">
         <v>457</v>
       </c>
+      <c r="G415">
+        <v>439</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -12008,6 +13255,9 @@
       <c r="F416">
         <v>117</v>
       </c>
+      <c r="G416">
+        <v>142</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -12036,6 +13286,9 @@
       <c r="F417">
         <v>434</v>
       </c>
+      <c r="G417">
+        <v>406</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -12064,6 +13317,9 @@
       <c r="F418">
         <v>284</v>
       </c>
+      <c r="G418">
+        <v>255</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -12092,6 +13348,9 @@
       <c r="F419">
         <v>491</v>
       </c>
+      <c r="G419">
+        <v>450</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -12120,6 +13379,9 @@
       <c r="F420">
         <v>356</v>
       </c>
+      <c r="G420">
+        <v>335</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -12148,6 +13410,9 @@
       <c r="F421">
         <v>387</v>
       </c>
+      <c r="G421">
+        <v>377</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -12176,6 +13441,9 @@
       <c r="F422">
         <v>304</v>
       </c>
+      <c r="G422">
+        <v>266</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -12204,6 +13472,9 @@
       <c r="F423">
         <v>397</v>
       </c>
+      <c r="G423">
+        <v>369</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -12232,6 +13503,9 @@
       <c r="F424">
         <v>949</v>
       </c>
+      <c r="G424">
+        <v>938</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -12260,6 +13534,9 @@
       <c r="F425">
         <v>369</v>
       </c>
+      <c r="G425">
+        <v>355</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -12288,6 +13565,9 @@
       <c r="F426">
         <v>293</v>
       </c>
+      <c r="G426">
+        <v>286</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -12316,6 +13596,9 @@
       <c r="F427">
         <v>513</v>
       </c>
+      <c r="G427">
+        <v>463</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -12344,6 +13627,9 @@
       <c r="F428">
         <v>541</v>
       </c>
+      <c r="G428">
+        <v>521</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -12372,6 +13658,9 @@
       <c r="F429">
         <v>583</v>
       </c>
+      <c r="G429">
+        <v>541</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -12400,6 +13689,9 @@
       <c r="F430">
         <v>579</v>
       </c>
+      <c r="G430">
+        <v>537</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -12428,6 +13720,9 @@
       <c r="F431">
         <v>546</v>
       </c>
+      <c r="G431">
+        <v>530</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -12456,6 +13751,9 @@
       <c r="F432">
         <v>466</v>
       </c>
+      <c r="G432">
+        <v>447</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -12484,6 +13782,9 @@
       <c r="F433">
         <v>367</v>
       </c>
+      <c r="G433">
+        <v>341</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -12512,6 +13813,9 @@
       <c r="F434">
         <v>809</v>
       </c>
+      <c r="G434">
+        <v>810</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -12540,6 +13844,9 @@
       <c r="F435">
         <v>412</v>
       </c>
+      <c r="G435">
+        <v>391</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -12568,6 +13875,9 @@
       <c r="F436">
         <v>13</v>
       </c>
+      <c r="G436">
+        <v>13</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -12596,6 +13906,9 @@
       <c r="F437">
         <v>25</v>
       </c>
+      <c r="G437">
+        <v>33</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -12624,6 +13937,9 @@
       <c r="F438">
         <v>8</v>
       </c>
+      <c r="G438">
+        <v>8</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -12652,6 +13968,9 @@
       <c r="F439">
         <v>3</v>
       </c>
+      <c r="G439">
+        <v>6</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -12680,6 +13999,9 @@
       <c r="F440">
         <v>57</v>
       </c>
+      <c r="G440">
+        <v>62</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -12708,6 +14030,9 @@
       <c r="F441">
         <v>14</v>
       </c>
+      <c r="G441">
+        <v>11</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -12736,6 +14061,9 @@
       <c r="F442">
         <v>11</v>
       </c>
+      <c r="G442">
+        <v>13</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -12764,6 +14092,9 @@
       <c r="F443">
         <v>11</v>
       </c>
+      <c r="G443">
+        <v>14</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -12792,6 +14123,9 @@
       <c r="F444">
         <v>13</v>
       </c>
+      <c r="G444">
+        <v>6</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -12820,6 +14154,9 @@
       <c r="F445">
         <v>25</v>
       </c>
+      <c r="G445">
+        <v>28</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -12848,6 +14185,9 @@
       <c r="F446">
         <v>27</v>
       </c>
+      <c r="G446">
+        <v>28</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -12876,6 +14216,9 @@
       <c r="F447">
         <v>394</v>
       </c>
+      <c r="G447">
+        <v>396</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -12904,6 +14247,9 @@
       <c r="F448">
         <v>581</v>
       </c>
+      <c r="G448">
+        <v>556</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -12932,6 +14278,9 @@
       <c r="F449">
         <v>253</v>
       </c>
+      <c r="G449">
+        <v>264</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -12960,6 +14309,9 @@
       <c r="F450">
         <v>375</v>
       </c>
+      <c r="G450">
+        <v>367</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -12988,6 +14340,9 @@
       <c r="F451">
         <v>272</v>
       </c>
+      <c r="G451">
+        <v>286</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -13016,6 +14371,9 @@
       <c r="F452">
         <v>340</v>
       </c>
+      <c r="G452">
+        <v>346</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -13043,6 +14401,133 @@
       </c>
       <c r="F453">
         <v>414</v>
+      </c>
+      <c r="G453">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Especialización</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Ciencias humanas</t>
+        </is>
+      </c>
+      <c r="D454">
+        <v>54577</v>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>Acción Sin Daño y Construcción de Paz</t>
+        </is>
+      </c>
+      <c r="F454">
+        <v>0</v>
+      </c>
+      <c r="G454">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Manizales</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Maestría</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Ingeniería y arquitectura</t>
+        </is>
+      </c>
+      <c r="D455">
+        <v>110722</v>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>Construcción</t>
+        </is>
+      </c>
+      <c r="F455">
+        <v>0</v>
+      </c>
+      <c r="G455">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Especialización</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Minas</t>
+        </is>
+      </c>
+      <c r="D456">
+        <v>16936</v>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>Sistemas</t>
+        </is>
+      </c>
+      <c r="F456">
+        <v>0</v>
+      </c>
+      <c r="G456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Especialización</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Minas</t>
+        </is>
+      </c>
+      <c r="D457">
+        <v>104790</v>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>Mantenimiento</t>
+        </is>
+      </c>
+      <c r="F457">
+        <v>0</v>
+      </c>
+      <c r="G457">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
